--- a/va_facility_data_2025-02-20/Shawnee VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Shawnee%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Shawnee VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Shawnee%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6a8e22f0d0f94b3d9eeea88a3162cd51"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdd64b73f84cf43e2938b8a6eec0f6fa1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2d3d2c30106e475aa4f42cd5e5434bac"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R22c09e23bc514ac8bbffad6286e4d2ea"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3214535002714cf0bdda9c908762d91a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R26fb181c3b7840aba3fd715e55a59d91"/>
   </x:sheets>
 </x:workbook>
 </file>
